--- a/Examples/AHP_Ratings_Cars/carModel_Ratings_Results.xlsx
+++ b/Examples/AHP_Ratings_Cars/carModel_Ratings_Results.xlsx
@@ -42,7 +42,7 @@
       <color rgb="ff000000"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -95,11 +95,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00f9d5b6"/>
         <bgColor rgb="00f9d5b6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ffcde4f7"/>
       </patternFill>
     </fill>
     <fill>
@@ -168,9 +163,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -653,8 +648,9 @@
           <t>Above Average</t>
         </is>
       </c>
-      <c r="B4" s="9" t="n">
-        <v>0.5</v>
+      <c r="B4" s="9">
+        <f>1/C3</f>
+        <v/>
       </c>
       <c r="C4" s="6" t="n">
         <v>1</v>
@@ -682,11 +678,13 @@
           <t>Average</t>
         </is>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>0.25</v>
+      <c r="B5" s="9">
+        <f>1/D3</f>
+        <v/>
+      </c>
+      <c r="C5" s="9">
+        <f>1/D4</f>
+        <v/>
       </c>
       <c r="D5" s="6" t="n">
         <v>1</v>
@@ -711,14 +709,17 @@
           <t>Below Average</t>
         </is>
       </c>
-      <c r="B6" s="9" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>0.25</v>
+      <c r="B6" s="9">
+        <f>1/E3</f>
+        <v/>
+      </c>
+      <c r="C6" s="9">
+        <f>1/E4</f>
+        <v/>
+      </c>
+      <c r="D6" s="9">
+        <f>1/E5</f>
+        <v/>
       </c>
       <c r="E6" s="6" t="n">
         <v>1</v>
@@ -740,17 +741,21 @@
           <t>Poor</t>
         </is>
       </c>
-      <c r="B7" s="9" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D7" s="9" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>0.3333333333333333</v>
+      <c r="B7" s="9">
+        <f>1/F3</f>
+        <v/>
+      </c>
+      <c r="C7" s="9">
+        <f>1/F4</f>
+        <v/>
+      </c>
+      <c r="D7" s="9">
+        <f>1/F5</f>
+        <v/>
+      </c>
+      <c r="E7" s="9">
+        <f>1/F6</f>
+        <v/>
       </c>
       <c r="F7" s="6" t="n">
         <v>1</v>
@@ -852,8 +857,9 @@
           <t>Med</t>
         </is>
       </c>
-      <c r="B14" s="9" t="n">
-        <v>0.25</v>
+      <c r="B14" s="9">
+        <f>1/C13</f>
+        <v/>
       </c>
       <c r="C14" s="6" t="n">
         <v>1</v>
@@ -875,11 +881,13 @@
           <t>Poor</t>
         </is>
       </c>
-      <c r="B15" s="9" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>0.1666666666666667</v>
+      <c r="B15" s="9">
+        <f>1/D13</f>
+        <v/>
+      </c>
+      <c r="C15" s="9">
+        <f>1/D14</f>
+        <v/>
       </c>
       <c r="D15" s="6" t="n">
         <v>1</v>
@@ -999,8 +1007,9 @@
           <t>Above Average</t>
         </is>
       </c>
-      <c r="B22" s="9" t="n">
-        <v>0.5</v>
+      <c r="B22" s="9">
+        <f>1/C21</f>
+        <v/>
       </c>
       <c r="C22" s="6" t="n">
         <v>1</v>
@@ -1028,11 +1037,13 @@
           <t>Average</t>
         </is>
       </c>
-      <c r="B23" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C23" s="9" t="n">
-        <v>0.25</v>
+      <c r="B23" s="9">
+        <f>1/D21</f>
+        <v/>
+      </c>
+      <c r="C23" s="9">
+        <f>1/D22</f>
+        <v/>
       </c>
       <c r="D23" s="6" t="n">
         <v>1</v>
@@ -1057,14 +1068,17 @@
           <t>Below Average</t>
         </is>
       </c>
-      <c r="B24" s="9" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="9" t="n">
-        <v>0.25</v>
+      <c r="B24" s="9">
+        <f>1/E21</f>
+        <v/>
+      </c>
+      <c r="C24" s="9">
+        <f>1/E22</f>
+        <v/>
+      </c>
+      <c r="D24" s="9">
+        <f>1/E23</f>
+        <v/>
       </c>
       <c r="E24" s="6" t="n">
         <v>1</v>
@@ -1086,17 +1100,21 @@
           <t>Poor</t>
         </is>
       </c>
-      <c r="B25" s="9" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C25" s="9" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D25" s="9" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="E25" s="9" t="n">
-        <v>0.3333333333333333</v>
+      <c r="B25" s="9">
+        <f>1/F21</f>
+        <v/>
+      </c>
+      <c r="C25" s="9">
+        <f>1/F22</f>
+        <v/>
+      </c>
+      <c r="D25" s="9">
+        <f>1/F23</f>
+        <v/>
+      </c>
+      <c r="E25" s="9">
+        <f>1/F24</f>
+        <v/>
       </c>
       <c r="F25" s="6" t="n">
         <v>1</v>
@@ -1207,8 +1225,9 @@
           <t>Between 25K and 30K</t>
         </is>
       </c>
-      <c r="B32" s="9" t="n">
-        <v>2</v>
+      <c r="B32" s="9">
+        <f>1/C31</f>
+        <v/>
       </c>
       <c r="C32" s="6" t="n">
         <v>1</v>
@@ -1233,11 +1252,13 @@
           <t>Between 20K and 25K</t>
         </is>
       </c>
-      <c r="B33" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C33" s="9" t="n">
-        <v>0.25</v>
+      <c r="B33" s="9">
+        <f>1/D31</f>
+        <v/>
+      </c>
+      <c r="C33" s="9">
+        <f>1/D32</f>
+        <v/>
       </c>
       <c r="D33" s="6" t="n">
         <v>1</v>
@@ -1259,14 +1280,17 @@
           <t>Less than 20K</t>
         </is>
       </c>
-      <c r="B34" s="9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C34" s="9" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="D34" s="9" t="n">
-        <v>0.125</v>
+      <c r="B34" s="9">
+        <f>1/E31</f>
+        <v/>
+      </c>
+      <c r="C34" s="9">
+        <f>1/E32</f>
+        <v/>
+      </c>
+      <c r="D34" s="9">
+        <f>1/E33</f>
+        <v/>
       </c>
       <c r="E34" s="6" t="n">
         <v>1</v>
@@ -1368,8 +1392,9 @@
           <t>Med</t>
         </is>
       </c>
-      <c r="B41" s="9" t="n">
-        <v>2.88447948125521</v>
+      <c r="B41" s="9">
+        <f>1/C40</f>
+        <v/>
       </c>
       <c r="C41" s="6" t="n">
         <v>1</v>
@@ -1391,11 +1416,13 @@
           <t>Lo</t>
         </is>
       </c>
-      <c r="B42" s="9" t="n">
-        <v>12.4798761996281</v>
-      </c>
-      <c r="C42" s="9" t="n">
-        <v>4.32656946307273</v>
+      <c r="B42" s="9">
+        <f>1/D40</f>
+        <v/>
+      </c>
+      <c r="C42" s="9">
+        <f>1/D41</f>
+        <v/>
       </c>
       <c r="D42" s="6" t="n">
         <v>1</v>
@@ -1490,111 +1517,6 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
     <cfRule type="dataBar" priority="1">
@@ -1639,69 +1561,6 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:J25">
     <cfRule type="dataBar" priority="1">
@@ -1774,111 +1633,6 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I34">
     <cfRule type="dataBar" priority="1">
@@ -1937,90 +1691,6 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H42">
     <cfRule type="dataBar" priority="1">
@@ -2059,69 +1729,6 @@
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="21">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1">
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="ff0b30b5"/>
-      </dataBar>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -2139,7 +1746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,7 +1986,7 @@
     <row r="10">
       <c r="A10" s="17" t="inlineStr">
         <is>
-          <t>ESTIMATED RESULTS</t>
+          <t>ESTIMATED TOTALS AND PRIORITIES</t>
         </is>
       </c>
       <c r="B10" s="17" t="inlineStr"/>
@@ -2390,542 +1997,272 @@
       <c r="G10" s="17" t="inlineStr"/>
       <c r="H10" s="17" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="B11" s="7" t="n">
+    <row r="12">
+      <c r="B12" s="7" t="n">
         <v>0.09842413418771449</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C12" s="7" t="n">
         <v>0.168654289322659</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D12" s="7" t="n">
         <v>0.3085784539668767</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E12" s="7" t="n">
         <v>0.3394744980181998</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F12" s="7" t="n">
         <v>0.08486862450454996</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="15" t="inlineStr">
+      <c r="G12" s="18" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="H12" s="18" t="inlineStr">
+        <is>
+          <t>PRIORITIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="15" t="inlineStr">
         <is>
           <t>1Prestige</t>
         </is>
       </c>
-      <c r="C12" s="15" t="inlineStr">
+      <c r="C13" s="15" t="inlineStr">
         <is>
           <t>3MPG</t>
         </is>
       </c>
-      <c r="D12" s="15" t="inlineStr">
+      <c r="D13" s="15" t="inlineStr">
         <is>
           <t>4Comfort</t>
         </is>
       </c>
-      <c r="E12" s="15" t="inlineStr">
+      <c r="E13" s="15" t="inlineStr">
         <is>
           <t>2.1InitialCost</t>
         </is>
       </c>
-      <c r="F12" s="15" t="inlineStr">
+      <c r="F13" s="15" t="inlineStr">
         <is>
           <t>2.2Maintenance</t>
         </is>
-      </c>
-      <c r="G12" s="18" t="inlineStr">
-        <is>
-          <t>TOTALS</t>
-        </is>
-      </c>
-      <c r="H12" s="18" t="inlineStr">
-        <is>
-          <t>PRIORITIES</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="15" t="inlineStr">
-        <is>
-          <t>1Acura TL</t>
-        </is>
-      </c>
-      <c r="B13" s="7">
-        <f>INDEX(rating_scales!J3:J7, MATCH(B2,rating_scales!A3:A7, 0))</f>
-        <v/>
-      </c>
-      <c r="C13" s="7">
-        <f>INDEX(rating_scales!H13:H15, MATCH(C2,rating_scales!A13:A15, 0))</f>
-        <v/>
-      </c>
-      <c r="D13" s="7">
-        <f>INDEX(rating_scales!J21:J25, MATCH(D2,rating_scales!A21:A25, 0))</f>
-        <v/>
-      </c>
-      <c r="E13" s="7">
-        <f>INDEX(rating_scales!I31:I34, MATCH(E2,rating_scales!A31:A34, 0))</f>
-        <v/>
-      </c>
-      <c r="F13" s="7">
-        <f>INDEX(rating_scales!H40:H42, MATCH(F2,rating_scales!A40:A42, 0))</f>
-        <v/>
-      </c>
-      <c r="G13" s="19">
-        <f>sumproduct(B13:F13,B11:F11)</f>
-        <v/>
-      </c>
-      <c r="H13" s="20">
-        <f>G13/sum(G13:G18)</f>
-        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="15" t="inlineStr">
         <is>
-          <t>2Toyota Camry</t>
+          <t>1Acura TL</t>
         </is>
       </c>
       <c r="B14" s="7">
-        <f>INDEX(rating_scales!J3:J7, MATCH(B3,rating_scales!A3:A7, 0))</f>
+        <f>INDEX(rating_scales!J3:J7, MATCH(B2,rating_scales!A3:A7, 0))</f>
         <v/>
       </c>
       <c r="C14" s="7">
-        <f>INDEX(rating_scales!H13:H15, MATCH(C3,rating_scales!A13:A15, 0))</f>
+        <f>INDEX(rating_scales!H13:H15, MATCH(C2,rating_scales!A13:A15, 0))</f>
         <v/>
       </c>
       <c r="D14" s="7">
-        <f>INDEX(rating_scales!J21:J25, MATCH(D3,rating_scales!A21:A25, 0))</f>
+        <f>INDEX(rating_scales!J21:J25, MATCH(D2,rating_scales!A21:A25, 0))</f>
         <v/>
       </c>
       <c r="E14" s="7">
-        <f>INDEX(rating_scales!I31:I34, MATCH(E3,rating_scales!A31:A34, 0))</f>
+        <f>INDEX(rating_scales!I31:I34, MATCH(E2,rating_scales!A31:A34, 0))</f>
         <v/>
       </c>
       <c r="F14" s="7">
-        <f>INDEX(rating_scales!H40:H42, MATCH(F3,rating_scales!A40:A42, 0))</f>
+        <f>INDEX(rating_scales!H40:H42, MATCH(F2,rating_scales!A40:A42, 0))</f>
         <v/>
       </c>
       <c r="G14" s="19">
-        <f>sumproduct(B14:F14,B11:F11)</f>
+        <f>sumproduct(B14:F14,B12:F12)</f>
         <v/>
       </c>
       <c r="H14" s="20">
-        <f>G14/sum(G13:G18)</f>
+        <f>G14/sum(G14:G19)</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="15" t="inlineStr">
         <is>
-          <t>3Honda Civic</t>
+          <t>2Toyota Camry</t>
         </is>
       </c>
       <c r="B15" s="7">
-        <f>INDEX(rating_scales!J3:J7, MATCH(B4,rating_scales!A3:A7, 0))</f>
+        <f>INDEX(rating_scales!J3:J7, MATCH(B3,rating_scales!A3:A7, 0))</f>
         <v/>
       </c>
       <c r="C15" s="7">
-        <f>INDEX(rating_scales!H13:H15, MATCH(C4,rating_scales!A13:A15, 0))</f>
+        <f>INDEX(rating_scales!H13:H15, MATCH(C3,rating_scales!A13:A15, 0))</f>
         <v/>
       </c>
       <c r="D15" s="7">
-        <f>INDEX(rating_scales!J21:J25, MATCH(D4,rating_scales!A21:A25, 0))</f>
+        <f>INDEX(rating_scales!J21:J25, MATCH(D3,rating_scales!A21:A25, 0))</f>
         <v/>
       </c>
       <c r="E15" s="7">
-        <f>INDEX(rating_scales!I31:I34, MATCH(E4,rating_scales!A31:A34, 0))</f>
+        <f>INDEX(rating_scales!I31:I34, MATCH(E3,rating_scales!A31:A34, 0))</f>
         <v/>
       </c>
       <c r="F15" s="7">
-        <f>INDEX(rating_scales!H40:H42, MATCH(F4,rating_scales!A40:A42, 0))</f>
+        <f>INDEX(rating_scales!H40:H42, MATCH(F3,rating_scales!A40:A42, 0))</f>
         <v/>
       </c>
       <c r="G15" s="19">
-        <f>sumproduct(B15:F15,B11:F11)</f>
+        <f>sumproduct(B15:F15,B12:F12)</f>
         <v/>
       </c>
       <c r="H15" s="20">
-        <f>G15/sum(G13:G18)</f>
+        <f>G15/sum(G14:G19)</f>
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>4Fiat</t>
+          <t>3Honda Civic</t>
         </is>
       </c>
       <c r="B16" s="7">
-        <f>INDEX(rating_scales!J3:J7, MATCH(B5,rating_scales!A3:A7, 0))</f>
+        <f>INDEX(rating_scales!J3:J7, MATCH(B4,rating_scales!A3:A7, 0))</f>
         <v/>
       </c>
       <c r="C16" s="7">
-        <f>INDEX(rating_scales!H13:H15, MATCH(C5,rating_scales!A13:A15, 0))</f>
+        <f>INDEX(rating_scales!H13:H15, MATCH(C4,rating_scales!A13:A15, 0))</f>
         <v/>
       </c>
       <c r="D16" s="7">
-        <f>INDEX(rating_scales!J21:J25, MATCH(D5,rating_scales!A21:A25, 0))</f>
+        <f>INDEX(rating_scales!J21:J25, MATCH(D4,rating_scales!A21:A25, 0))</f>
         <v/>
       </c>
       <c r="E16" s="7">
-        <f>INDEX(rating_scales!I31:I34, MATCH(E5,rating_scales!A31:A34, 0))</f>
+        <f>INDEX(rating_scales!I31:I34, MATCH(E4,rating_scales!A31:A34, 0))</f>
         <v/>
       </c>
       <c r="F16" s="7">
-        <f>INDEX(rating_scales!H40:H42, MATCH(F5,rating_scales!A40:A42, 0))</f>
+        <f>INDEX(rating_scales!H40:H42, MATCH(F4,rating_scales!A40:A42, 0))</f>
         <v/>
       </c>
       <c r="G16" s="19">
-        <f>sumproduct(B16:F16,B11:F11)</f>
+        <f>sumproduct(B16:F16,B12:F12)</f>
         <v/>
       </c>
       <c r="H16" s="20">
-        <f>G16/sum(G13:G18)</f>
+        <f>G16/sum(G14:G19)</f>
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="15" t="inlineStr">
         <is>
-          <t>5MiniCooper</t>
+          <t>4Fiat</t>
         </is>
       </c>
       <c r="B17" s="7">
-        <f>INDEX(rating_scales!J3:J7, MATCH(B6,rating_scales!A3:A7, 0))</f>
+        <f>INDEX(rating_scales!J3:J7, MATCH(B5,rating_scales!A3:A7, 0))</f>
         <v/>
       </c>
       <c r="C17" s="7">
-        <f>INDEX(rating_scales!H13:H15, MATCH(C6,rating_scales!A13:A15, 0))</f>
+        <f>INDEX(rating_scales!H13:H15, MATCH(C5,rating_scales!A13:A15, 0))</f>
         <v/>
       </c>
       <c r="D17" s="7">
-        <f>INDEX(rating_scales!J21:J25, MATCH(D6,rating_scales!A21:A25, 0))</f>
+        <f>INDEX(rating_scales!J21:J25, MATCH(D5,rating_scales!A21:A25, 0))</f>
         <v/>
       </c>
       <c r="E17" s="7">
-        <f>INDEX(rating_scales!I31:I34, MATCH(E6,rating_scales!A31:A34, 0))</f>
+        <f>INDEX(rating_scales!I31:I34, MATCH(E5,rating_scales!A31:A34, 0))</f>
         <v/>
       </c>
       <c r="F17" s="7">
-        <f>INDEX(rating_scales!H40:H42, MATCH(F6,rating_scales!A40:A42, 0))</f>
+        <f>INDEX(rating_scales!H40:H42, MATCH(F5,rating_scales!A40:A42, 0))</f>
         <v/>
       </c>
       <c r="G17" s="19">
-        <f>sumproduct(B17:F17,B11:F11)</f>
+        <f>sumproduct(B17:F17,B12:F12)</f>
         <v/>
       </c>
       <c r="H17" s="20">
-        <f>G17/sum(G13:G18)</f>
+        <f>G17/sum(G14:G19)</f>
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15" t="inlineStr">
         <is>
+          <t>5MiniCooper</t>
+        </is>
+      </c>
+      <c r="B18" s="7">
+        <f>INDEX(rating_scales!J3:J7, MATCH(B6,rating_scales!A3:A7, 0))</f>
+        <v/>
+      </c>
+      <c r="C18" s="7">
+        <f>INDEX(rating_scales!H13:H15, MATCH(C6,rating_scales!A13:A15, 0))</f>
+        <v/>
+      </c>
+      <c r="D18" s="7">
+        <f>INDEX(rating_scales!J21:J25, MATCH(D6,rating_scales!A21:A25, 0))</f>
+        <v/>
+      </c>
+      <c r="E18" s="7">
+        <f>INDEX(rating_scales!I31:I34, MATCH(E6,rating_scales!A31:A34, 0))</f>
+        <v/>
+      </c>
+      <c r="F18" s="7">
+        <f>INDEX(rating_scales!H40:H42, MATCH(F6,rating_scales!A40:A42, 0))</f>
+        <v/>
+      </c>
+      <c r="G18" s="19">
+        <f>sumproduct(B18:F18,B12:F12)</f>
+        <v/>
+      </c>
+      <c r="H18" s="20">
+        <f>G18/sum(G14:G19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15" t="inlineStr">
+        <is>
           <t>6Kia Rio</t>
         </is>
       </c>
-      <c r="B18" s="7">
+      <c r="B19" s="7">
         <f>INDEX(rating_scales!J3:J7, MATCH(B7,rating_scales!A3:A7, 0))</f>
         <v/>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <f>INDEX(rating_scales!H13:H15, MATCH(C7,rating_scales!A13:A15, 0))</f>
         <v/>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <f>INDEX(rating_scales!J21:J25, MATCH(D7,rating_scales!A21:A25, 0))</f>
         <v/>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <f>INDEX(rating_scales!I31:I34, MATCH(E7,rating_scales!A31:A34, 0))</f>
         <v/>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <f>INDEX(rating_scales!H40:H42, MATCH(F7,rating_scales!A40:A42, 0))</f>
         <v/>
       </c>
-      <c r="G18" s="19">
-        <f>sumproduct(B18:F18,B11:F11)</f>
-        <v/>
-      </c>
-      <c r="H18" s="20">
-        <f>G18/sum(G13:G18)</f>
+      <c r="G19" s="19">
+        <f>sumproduct(B19:F19,B12:F12)</f>
+        <v/>
+      </c>
+      <c r="H19" s="20">
+        <f>G19/sum(G14:G19)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="150">
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="B7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A7</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="C7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A13:A15</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A21:A25</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="E7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A31:A34</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
-    <dataValidation sqref="F7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A40:A42</formula1>
-    </dataValidation>
+  <dataValidations count="60">
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A7</formula1>
     </dataValidation>
